--- a/biology/Zoologie/Ectoderme_oral/Ectoderme_oral.xlsx
+++ b/biology/Zoologie/Ectoderme_oral/Ectoderme_oral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’ectoderme du tissu oral est chez les coraux un tissu organique du derme oral en contact direct avec l’eau[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’ectoderme du tissu oral est chez les coraux un tissu organique du derme oral en contact direct avec l’eau.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur sa face en contact avec l’eau, il y a des cellules sensorielles, des cellules musculaires (aussi nommées cellules épithélio-musculaires) flanquées chacun d'un cilium et contenant des myonèmes, des cellules neuroépithéliales, des nématocystes  (aussi appelés cnidoblaste ou nématoblastes) servant à l’injection de venin), des mucocytes (permettant de générer la couche de mucus supérieure). À l’intérieur de l’ectoderme, on retrouve des cellules souches (aussi appelée « cellules interstitielles » ou encore « cellules ectodermiques »).
 Les cellules sensorielles permettent de sentir le contact avec des éléments extérieurs ou les changements de pression dans l’eau. À leur pôle apical, elles disposent d’un cil sensoriel qui renseigne l’animal sur son environnement proche. Leurs stimulations entrainent une réaction de l’animal (mouvement par exemple) grâce au travail des neurones se trouvant dans la mésoglée.
